--- a/benchmark/experiments/adding_headers_to_samples (soccer, rf@charfreq model, 100 runs per p_header value) [01-02-2017].xlsx
+++ b/benchmark/experiments/adding_headers_to_samples (soccer, rf@charfreq model, 100 runs per p_header value) [01-02-2017].xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tys017/Projects/Data_integration/code/serene-benchmark/benchmark/experiments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21800" windowHeight="17360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +123,1016 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy_mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.746923076923077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.697692307692308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.732307692307692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.740769230769231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.745384615384615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.727692307692308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.727692307692308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70923076923077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.703076923076924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.698461538461539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.693076923076924</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.693076923076924</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.692307692307693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1130136032"/>
+        <c:axId val="1135926640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1130136032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1135926640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1135926640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1130136032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -156,12 +1178,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,14 +1210,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -222,6 +1245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,14 +1421,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -444,25 +1470,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.746923076923077</v>
+        <v>0.74692307692307702</v>
       </c>
       <c r="E2">
-        <v>0.0350806170440053</v>
+        <v>3.5080617044005301E-2</v>
       </c>
       <c r="F2">
-        <v>0.684561965811965</v>
+        <v>0.68456196581196505</v>
       </c>
       <c r="G2">
-        <v>0.0414931279095739</v>
+        <v>4.14931279095739E-2</v>
       </c>
       <c r="H2">
-        <v>0.822896618903972</v>
+        <v>0.82289661890397203</v>
       </c>
       <c r="I2">
-        <v>0.0182641366902595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.8264136690259499E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -473,25 +1499,25 @@
         <v>0.05</v>
       </c>
       <c r="D3">
-        <v>0.697692307692308</v>
+        <v>0.69769230769230794</v>
       </c>
       <c r="E3">
-        <v>0.0197255692289418</v>
+        <v>1.9725569228941801E-2</v>
       </c>
       <c r="F3">
-        <v>0.626256410256411</v>
+        <v>0.62625641025641099</v>
       </c>
       <c r="G3">
-        <v>0.0218215020816861</v>
+        <v>2.1821502081686098E-2</v>
       </c>
       <c r="H3">
-        <v>0.80945177045177</v>
+        <v>0.80945177045176997</v>
       </c>
       <c r="I3">
-        <v>0.010619185039878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.0619185039878E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -502,25 +1528,25 @@
         <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0.732307692307692</v>
+        <v>0.73230769230769199</v>
       </c>
       <c r="E4">
-        <v>0.0386243639668215</v>
+        <v>3.86243639668215E-2</v>
       </c>
       <c r="F4">
-        <v>0.657153846153846</v>
+        <v>0.65715384615384598</v>
       </c>
       <c r="G4">
-        <v>0.0454291357397736</v>
+        <v>4.5429135739773599E-2</v>
       </c>
       <c r="H4">
-        <v>0.827998168498168</v>
+        <v>0.82799816849816799</v>
       </c>
       <c r="I4">
-        <v>0.0203904820215738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2.03904820215738E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -534,22 +1560,22 @@
         <v>0.74</v>
       </c>
       <c r="E5">
-        <v>0.0375255177857357</v>
+        <v>3.75255177857357E-2</v>
       </c>
       <c r="F5">
-        <v>0.66348717948718</v>
+        <v>0.66348717948717995</v>
       </c>
       <c r="G5">
-        <v>0.0437017620028265</v>
+        <v>4.3701762002826501E-2</v>
       </c>
       <c r="H5">
-        <v>0.830428571428571</v>
+        <v>0.83042857142857096</v>
       </c>
       <c r="I5">
-        <v>0.0190800380012314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>1.9080038001231401E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -560,25 +1586,25 @@
         <v>0.2</v>
       </c>
       <c r="D6">
-        <v>0.740769230769231</v>
+        <v>0.74076923076923096</v>
       </c>
       <c r="E6">
-        <v>0.0373258913149161</v>
+        <v>3.73258913149161E-2</v>
       </c>
       <c r="F6">
-        <v>0.662923076923077</v>
+        <v>0.66292307692307695</v>
       </c>
       <c r="G6">
-        <v>0.0425207056989723</v>
+        <v>4.2520705698972303E-2</v>
       </c>
       <c r="H6">
-        <v>0.832114468864469</v>
+        <v>0.83211446886446905</v>
       </c>
       <c r="I6">
-        <v>0.018929057596012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1.8929057596011999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -589,25 +1615,25 @@
         <v>0.25</v>
       </c>
       <c r="D7">
-        <v>0.745384615384615</v>
+        <v>0.74538461538461498</v>
       </c>
       <c r="E7">
-        <v>0.0357556306701332</v>
+        <v>3.5755630670133202E-2</v>
       </c>
       <c r="F7">
-        <v>0.666948717948718</v>
+        <v>0.66694871794871802</v>
       </c>
       <c r="G7">
-        <v>0.0425370627735591</v>
+        <v>4.2537062773559099E-2</v>
       </c>
       <c r="H7">
-        <v>0.834416666666667</v>
+        <v>0.83441666666666703</v>
       </c>
       <c r="I7">
-        <v>0.0182194804186373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1.8219480418637302E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -618,25 +1644,25 @@
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.727692307692308</v>
+        <v>0.72769230769230797</v>
       </c>
       <c r="E8">
-        <v>0.0385314050740026</v>
+        <v>3.85314050740026E-2</v>
       </c>
       <c r="F8">
-        <v>0.646230769230769</v>
+        <v>0.64623076923076905</v>
       </c>
       <c r="G8">
-        <v>0.0446642330089561</v>
+        <v>4.4664233008956097E-2</v>
       </c>
       <c r="H8">
-        <v>0.824507326007326</v>
+        <v>0.82450732600732601</v>
       </c>
       <c r="I8">
-        <v>0.0197015916493824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1.9701591649382399E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -647,25 +1673,25 @@
         <v>0.35</v>
       </c>
       <c r="D9">
-        <v>0.727692307692308</v>
+        <v>0.72769230769230797</v>
       </c>
       <c r="E9">
-        <v>0.0385314050740026</v>
+        <v>3.85314050740026E-2</v>
       </c>
       <c r="F9">
-        <v>0.645564102564103</v>
+        <v>0.64556410256410302</v>
       </c>
       <c r="G9">
-        <v>0.0449287092343048</v>
+        <v>4.4928709234304802E-2</v>
       </c>
       <c r="H9">
-        <v>0.826550671550671</v>
+        <v>0.82655067155067097</v>
       </c>
       <c r="I9">
-        <v>0.0201988772414799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>2.0198877241479899E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -679,22 +1705,22 @@
         <v>0.70923076923077</v>
       </c>
       <c r="E10">
-        <v>0.0320256307610174</v>
+        <v>3.2025630761017401E-2</v>
       </c>
       <c r="F10">
-        <v>0.624666666666667</v>
+        <v>0.62466666666666704</v>
       </c>
       <c r="G10">
-        <v>0.0375074267057753</v>
+        <v>3.7507426705775303E-2</v>
       </c>
       <c r="H10">
-        <v>0.816650183150183</v>
+        <v>0.81665018315018301</v>
       </c>
       <c r="I10">
-        <v>0.016760237619529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1.6760237619528998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -705,25 +1731,25 @@
         <v>0.45</v>
       </c>
       <c r="D11">
-        <v>0.703076923076924</v>
+        <v>0.70307692307692404</v>
       </c>
       <c r="E11">
-        <v>0.0268257760015213</v>
+        <v>2.68257760015213E-2</v>
       </c>
       <c r="F11">
-        <v>0.616641025641026</v>
+        <v>0.61664102564102596</v>
       </c>
       <c r="G11">
-        <v>0.0318019204157763</v>
+        <v>3.18019204157763E-2</v>
       </c>
       <c r="H11">
-        <v>0.813708791208791</v>
+        <v>0.81370879120879103</v>
       </c>
       <c r="I11">
-        <v>0.014431156672006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.4431156672006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -734,25 +1760,25 @@
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.698461538461539</v>
+        <v>0.69846153846153902</v>
       </c>
       <c r="E12">
-        <v>0.0209738403341762</v>
+        <v>2.0973840334176201E-2</v>
       </c>
       <c r="F12">
-        <v>0.611846153846154</v>
+        <v>0.61184615384615404</v>
       </c>
       <c r="G12">
-        <v>0.0249898670517209</v>
+        <v>2.4989867051720901E-2</v>
       </c>
       <c r="H12">
-        <v>0.812263736263736</v>
+        <v>0.81226373626373605</v>
       </c>
       <c r="I12">
-        <v>0.0119050300097033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1.1905030009703299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>100</v>
       </c>
@@ -760,28 +1786,28 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D13">
-        <v>0.693076923076924</v>
+        <v>0.69307692307692403</v>
       </c>
       <c r="E13">
-        <v>0.00769230769230769</v>
+        <v>7.6923076923076901E-3</v>
       </c>
       <c r="F13">
-        <v>0.604717948717948</v>
+        <v>0.60471794871794804</v>
       </c>
       <c r="G13">
-        <v>0.00997223514586614</v>
+        <v>9.9722351458661398E-3</v>
       </c>
       <c r="H13">
-        <v>0.809527472527473</v>
+        <v>0.80952747252747304</v>
       </c>
       <c r="I13">
-        <v>0.00701503480485146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>7.0150348048514596E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>100</v>
       </c>
@@ -792,25 +1818,25 @@
         <v>0.6</v>
       </c>
       <c r="D14">
-        <v>0.693076923076924</v>
+        <v>0.69307692307692403</v>
       </c>
       <c r="E14">
-        <v>0.0076923076923077</v>
+        <v>7.6923076923076997E-3</v>
       </c>
       <c r="F14">
-        <v>0.605794871794872</v>
+        <v>0.60579487179487201</v>
       </c>
       <c r="G14">
-        <v>0.0106354463113178</v>
+        <v>1.0635446311317799E-2</v>
       </c>
       <c r="H14">
-        <v>0.810752747252747</v>
+        <v>0.81075274725274704</v>
       </c>
       <c r="I14">
-        <v>0.00782724444997568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>7.8272444499756805E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>100</v>
       </c>
@@ -821,25 +1847,25 @@
         <v>0.65</v>
       </c>
       <c r="D15">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E15">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F15">
-        <v>0.606487179487179</v>
+        <v>0.60648717948717901</v>
       </c>
       <c r="G15">
-        <v>0.00771777705307723</v>
+        <v>7.7177770530772304E-3</v>
       </c>
       <c r="H15">
-        <v>0.809551282051282</v>
+        <v>0.80955128205128202</v>
       </c>
       <c r="I15">
-        <v>0.00651271395475563</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>6.5127139547556303E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>100</v>
       </c>
@@ -850,25 +1876,25 @@
         <v>0.7</v>
       </c>
       <c r="D16">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E16">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F16">
-        <v>0.608871794871795</v>
+        <v>0.60887179487179499</v>
       </c>
       <c r="G16">
-        <v>0.00917230905290604</v>
+        <v>9.1723090529060407E-3</v>
       </c>
       <c r="H16">
-        <v>0.810417582417583</v>
+        <v>0.81041758241758299</v>
       </c>
       <c r="I16">
-        <v>0.00714882114614966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>7.1488211461496597E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>100</v>
       </c>
@@ -879,25 +1905,25 @@
         <v>0.75</v>
       </c>
       <c r="D17">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E17">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F17">
-        <v>0.611102564102564</v>
+        <v>0.61110256410256403</v>
       </c>
       <c r="G17">
-        <v>0.00964958951095651</v>
+        <v>9.6495895109565098E-3</v>
       </c>
       <c r="H17">
-        <v>0.81126282051282</v>
+        <v>0.81126282051281995</v>
       </c>
       <c r="I17">
-        <v>0.00770700001957282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>7.7070000195728202E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>100</v>
       </c>
@@ -908,25 +1934,25 @@
         <v>0.8</v>
       </c>
       <c r="D18">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E18">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F18">
-        <v>0.612435897435898</v>
+        <v>0.61243589743589799</v>
       </c>
       <c r="G18">
-        <v>0.00972035425244259</v>
+        <v>9.7203542524425899E-3</v>
       </c>
       <c r="H18">
-        <v>0.810835164835165</v>
+        <v>0.81083516483516505</v>
       </c>
       <c r="I18">
-        <v>0.00749489534106088</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>7.4948953410608797E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>100</v>
       </c>
@@ -937,25 +1963,25 @@
         <v>0.85</v>
       </c>
       <c r="D19">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E19">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F19">
-        <v>0.615435897435898</v>
+        <v>0.61543589743589799</v>
       </c>
       <c r="G19">
-        <v>0.00937681241155723</v>
+        <v>9.3768124115572293E-3</v>
       </c>
       <c r="H19">
-        <v>0.80907326007326</v>
+        <v>0.80907326007325997</v>
       </c>
       <c r="I19">
-        <v>0.00727404240009863</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>7.2740424000986301E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>100</v>
       </c>
@@ -966,25 +1992,25 @@
         <v>0.9</v>
       </c>
       <c r="D20">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E20">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F20">
-        <v>0.619615384615385</v>
+        <v>0.61961538461538501</v>
       </c>
       <c r="G20">
-        <v>0.0075693794998966</v>
+        <v>7.5693794998966E-3</v>
       </c>
       <c r="H20">
-        <v>0.808283882783883</v>
+        <v>0.80828388278388297</v>
       </c>
       <c r="I20">
-        <v>0.00760275975412079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>7.6027597541207899E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>100</v>
       </c>
@@ -995,25 +2021,25 @@
         <v>0.95</v>
       </c>
       <c r="D21">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E21">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F21">
-        <v>0.620282051282052</v>
+        <v>0.62028205128205205</v>
       </c>
       <c r="G21">
-        <v>0.00632389376091381</v>
+        <v>6.32389376091381E-3</v>
       </c>
       <c r="H21">
-        <v>0.801107142857143</v>
+        <v>0.80110714285714302</v>
       </c>
       <c r="I21">
-        <v>0.00929937923848296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>9.2993792384829608E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1024,25 +2050,26 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.692307692307693</v>
+        <v>0.69230769230769296</v>
       </c>
       <c r="E22">
-        <v>6.69489673871845e-16</v>
+        <v>6.6948967387184501E-16</v>
       </c>
       <c r="F22">
-        <v>0.62097435897436</v>
+        <v>0.62097435897436004</v>
       </c>
       <c r="G22">
-        <v>0.00416138868392443</v>
+        <v>4.1613886839244303E-3</v>
       </c>
       <c r="H22">
-        <v>0.789956043956044</v>
+        <v>0.78995604395604402</v>
       </c>
       <c r="I22">
-        <v>0.00588912168993169</v>
+        <v>5.8891216899316897E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/benchmark/experiments/adding_headers_to_samples (soccer, rf@charfreq model, 100 runs per p_header value) [01-02-2017].xlsx
+++ b/benchmark/experiments/adding_headers_to_samples (soccer, rf@charfreq model, 100 runs per p_header value) [01-02-2017].xlsx
@@ -222,7 +222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:f>Sheet1!$C$3:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -294,7 +294,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:f>Sheet1!$D$3:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -374,11 +374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1130136032"/>
-        <c:axId val="1135926640"/>
+        <c:axId val="1201193312"/>
+        <c:axId val="1165950976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1130136032"/>
+        <c:axId val="1201193312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,6 +398,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -434,12 +435,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1135926640"/>
+        <c:crossAx val="1165950976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1135926640"/>
+        <c:axId val="1165950976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1130136032"/>
+        <c:crossAx val="1201193312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1104,20 +1105,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1422,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1464,28 +1465,28 @@
         <v>100</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.74692307692307702</v>
+        <v>0.90909090909090751</v>
       </c>
       <c r="E2">
-        <v>3.5080617044005301E-2</v>
+        <v>1.5621425723676389E-15</v>
       </c>
       <c r="F2">
-        <v>0.68456196581196505</v>
+        <v>0.87878787878787668</v>
       </c>
       <c r="G2">
-        <v>4.14931279095739E-2</v>
+        <v>2.120050633927509E-15</v>
       </c>
       <c r="H2">
-        <v>0.82289661890397203</v>
+        <v>0.95454545454545359</v>
       </c>
       <c r="I2">
-        <v>1.8264136690259499E-2</v>
+        <v>1.0042345108077671E-15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1496,25 +1497,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.69769230769230794</v>
+        <v>0.74692307692307702</v>
       </c>
       <c r="E3">
-        <v>1.9725569228941801E-2</v>
+        <v>3.5080617044005301E-2</v>
       </c>
       <c r="F3">
-        <v>0.62625641025641099</v>
+        <v>0.68456196581196505</v>
       </c>
       <c r="G3">
-        <v>2.1821502081686098E-2</v>
+        <v>4.14931279095739E-2</v>
       </c>
       <c r="H3">
-        <v>0.80945177045176997</v>
+        <v>0.82289661890397203</v>
       </c>
       <c r="I3">
-        <v>1.0619185039878E-2</v>
+        <v>1.8264136690259499E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1525,25 +1526,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <v>0.73230769230769199</v>
+        <v>0.69769230769230794</v>
       </c>
       <c r="E4">
-        <v>3.86243639668215E-2</v>
+        <v>1.9725569228941801E-2</v>
       </c>
       <c r="F4">
-        <v>0.65715384615384598</v>
+        <v>0.62625641025641099</v>
       </c>
       <c r="G4">
-        <v>4.5429135739773599E-2</v>
+        <v>2.1821502081686098E-2</v>
       </c>
       <c r="H4">
-        <v>0.82799816849816799</v>
+        <v>0.80945177045176997</v>
       </c>
       <c r="I4">
-        <v>2.03904820215738E-2</v>
+        <v>1.0619185039878E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1554,25 +1555,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D5">
-        <v>0.74</v>
+        <v>0.73230769230769199</v>
       </c>
       <c r="E5">
-        <v>3.75255177857357E-2</v>
+        <v>3.86243639668215E-2</v>
       </c>
       <c r="F5">
-        <v>0.66348717948717995</v>
+        <v>0.65715384615384598</v>
       </c>
       <c r="G5">
-        <v>4.3701762002826501E-2</v>
+        <v>4.5429135739773599E-2</v>
       </c>
       <c r="H5">
-        <v>0.83042857142857096</v>
+        <v>0.82799816849816799</v>
       </c>
       <c r="I5">
-        <v>1.9080038001231401E-2</v>
+        <v>2.03904820215738E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1583,25 +1584,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D6">
-        <v>0.74076923076923096</v>
+        <v>0.74</v>
       </c>
       <c r="E6">
-        <v>3.73258913149161E-2</v>
+        <v>3.75255177857357E-2</v>
       </c>
       <c r="F6">
-        <v>0.66292307692307695</v>
+        <v>0.66348717948717995</v>
       </c>
       <c r="G6">
-        <v>4.2520705698972303E-2</v>
+        <v>4.3701762002826501E-2</v>
       </c>
       <c r="H6">
-        <v>0.83211446886446905</v>
+        <v>0.83042857142857096</v>
       </c>
       <c r="I6">
-        <v>1.8929057596011999E-2</v>
+        <v>1.9080038001231401E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1612,25 +1613,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>0.74538461538461498</v>
+        <v>0.74076923076923096</v>
       </c>
       <c r="E7">
-        <v>3.5755630670133202E-2</v>
+        <v>3.73258913149161E-2</v>
       </c>
       <c r="F7">
-        <v>0.66694871794871802</v>
+        <v>0.66292307692307695</v>
       </c>
       <c r="G7">
-        <v>4.2537062773559099E-2</v>
+        <v>4.2520705698972303E-2</v>
       </c>
       <c r="H7">
-        <v>0.83441666666666703</v>
+        <v>0.83211446886446905</v>
       </c>
       <c r="I7">
-        <v>1.8219480418637302E-2</v>
+        <v>1.8929057596011999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1641,25 +1642,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>0.72769230769230797</v>
+        <v>0.74538461538461498</v>
       </c>
       <c r="E8">
-        <v>3.85314050740026E-2</v>
+        <v>3.5755630670133202E-2</v>
       </c>
       <c r="F8">
-        <v>0.64623076923076905</v>
+        <v>0.66694871794871802</v>
       </c>
       <c r="G8">
-        <v>4.4664233008956097E-2</v>
+        <v>4.2537062773559099E-2</v>
       </c>
       <c r="H8">
-        <v>0.82450732600732601</v>
+        <v>0.83441666666666703</v>
       </c>
       <c r="I8">
-        <v>1.9701591649382399E-2</v>
+        <v>1.8219480418637302E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1670,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
         <v>0.72769230769230797</v>
@@ -1679,16 +1680,16 @@
         <v>3.85314050740026E-2</v>
       </c>
       <c r="F9">
-        <v>0.64556410256410302</v>
+        <v>0.64623076923076905</v>
       </c>
       <c r="G9">
-        <v>4.4928709234304802E-2</v>
+        <v>4.4664233008956097E-2</v>
       </c>
       <c r="H9">
-        <v>0.82655067155067097</v>
+        <v>0.82450732600732601</v>
       </c>
       <c r="I9">
-        <v>2.0198877241479899E-2</v>
+        <v>1.9701591649382399E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1699,25 +1700,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D10">
-        <v>0.70923076923077</v>
+        <v>0.72769230769230797</v>
       </c>
       <c r="E10">
-        <v>3.2025630761017401E-2</v>
+        <v>3.85314050740026E-2</v>
       </c>
       <c r="F10">
-        <v>0.62466666666666704</v>
+        <v>0.64556410256410302</v>
       </c>
       <c r="G10">
-        <v>3.7507426705775303E-2</v>
+        <v>4.4928709234304802E-2</v>
       </c>
       <c r="H10">
-        <v>0.81665018315018301</v>
+        <v>0.82655067155067097</v>
       </c>
       <c r="I10">
-        <v>1.6760237619528998E-2</v>
+        <v>2.0198877241479899E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1728,25 +1729,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.70307692307692404</v>
+        <v>0.70923076923077</v>
       </c>
       <c r="E11">
-        <v>2.68257760015213E-2</v>
+        <v>3.2025630761017401E-2</v>
       </c>
       <c r="F11">
-        <v>0.61664102564102596</v>
+        <v>0.62466666666666704</v>
       </c>
       <c r="G11">
-        <v>3.18019204157763E-2</v>
+        <v>3.7507426705775303E-2</v>
       </c>
       <c r="H11">
-        <v>0.81370879120879103</v>
+        <v>0.81665018315018301</v>
       </c>
       <c r="I11">
-        <v>1.4431156672006E-2</v>
+        <v>1.6760237619528998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1757,25 +1758,25 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D12">
-        <v>0.69846153846153902</v>
+        <v>0.70307692307692404</v>
       </c>
       <c r="E12">
-        <v>2.0973840334176201E-2</v>
+        <v>2.68257760015213E-2</v>
       </c>
       <c r="F12">
-        <v>0.61184615384615404</v>
+        <v>0.61664102564102596</v>
       </c>
       <c r="G12">
-        <v>2.4989867051720901E-2</v>
+        <v>3.18019204157763E-2</v>
       </c>
       <c r="H12">
-        <v>0.81226373626373605</v>
+        <v>0.81370879120879103</v>
       </c>
       <c r="I12">
-        <v>1.1905030009703299E-2</v>
+        <v>1.4431156672006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1786,25 +1787,25 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>0.69307692307692403</v>
+        <v>0.69846153846153902</v>
       </c>
       <c r="E13">
-        <v>7.6923076923076901E-3</v>
+        <v>2.0973840334176201E-2</v>
       </c>
       <c r="F13">
-        <v>0.60471794871794804</v>
+        <v>0.61184615384615404</v>
       </c>
       <c r="G13">
-        <v>9.9722351458661398E-3</v>
+        <v>2.4989867051720901E-2</v>
       </c>
       <c r="H13">
-        <v>0.80952747252747304</v>
+        <v>0.81226373626373605</v>
       </c>
       <c r="I13">
-        <v>7.0150348048514596E-3</v>
+        <v>1.1905030009703299E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1815,25 +1816,25 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D14">
         <v>0.69307692307692403</v>
       </c>
       <c r="E14">
-        <v>7.6923076923076997E-3</v>
+        <v>7.6923076923076901E-3</v>
       </c>
       <c r="F14">
-        <v>0.60579487179487201</v>
+        <v>0.60471794871794804</v>
       </c>
       <c r="G14">
-        <v>1.0635446311317799E-2</v>
+        <v>9.9722351458661398E-3</v>
       </c>
       <c r="H14">
-        <v>0.81075274725274704</v>
+        <v>0.80952747252747304</v>
       </c>
       <c r="I14">
-        <v>7.8272444499756805E-3</v>
+        <v>7.0150348048514596E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1844,25 +1845,25 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="D15">
-        <v>0.69230769230769296</v>
+        <v>0.69307692307692403</v>
       </c>
       <c r="E15">
-        <v>6.6948967387184501E-16</v>
+        <v>7.6923076923076997E-3</v>
       </c>
       <c r="F15">
-        <v>0.60648717948717901</v>
+        <v>0.60579487179487201</v>
       </c>
       <c r="G15">
-        <v>7.7177770530772304E-3</v>
+        <v>1.0635446311317799E-2</v>
       </c>
       <c r="H15">
-        <v>0.80955128205128202</v>
+        <v>0.81075274725274704</v>
       </c>
       <c r="I15">
-        <v>6.5127139547556303E-3</v>
+        <v>7.8272444499756805E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1873,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="D16">
         <v>0.69230769230769296</v>
@@ -1882,16 +1883,16 @@
         <v>6.6948967387184501E-16</v>
       </c>
       <c r="F16">
-        <v>0.60887179487179499</v>
+        <v>0.60648717948717901</v>
       </c>
       <c r="G16">
-        <v>9.1723090529060407E-3</v>
+        <v>7.7177770530772304E-3</v>
       </c>
       <c r="H16">
-        <v>0.81041758241758299</v>
+        <v>0.80955128205128202</v>
       </c>
       <c r="I16">
-        <v>7.1488211461496597E-3</v>
+        <v>6.5127139547556303E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1902,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="D17">
         <v>0.69230769230769296</v>
@@ -1911,16 +1912,16 @@
         <v>6.6948967387184501E-16</v>
       </c>
       <c r="F17">
-        <v>0.61110256410256403</v>
+        <v>0.60887179487179499</v>
       </c>
       <c r="G17">
-        <v>9.6495895109565098E-3</v>
+        <v>9.1723090529060407E-3</v>
       </c>
       <c r="H17">
-        <v>0.81126282051281995</v>
+        <v>0.81041758241758299</v>
       </c>
       <c r="I17">
-        <v>7.7070000195728202E-3</v>
+        <v>7.1488211461496597E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1931,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D18">
         <v>0.69230769230769296</v>
@@ -1940,16 +1941,16 @@
         <v>6.6948967387184501E-16</v>
       </c>
       <c r="F18">
-        <v>0.61243589743589799</v>
+        <v>0.61110256410256403</v>
       </c>
       <c r="G18">
-        <v>9.7203542524425899E-3</v>
+        <v>9.6495895109565098E-3</v>
       </c>
       <c r="H18">
-        <v>0.81083516483516505</v>
+        <v>0.81126282051281995</v>
       </c>
       <c r="I18">
-        <v>7.4948953410608797E-3</v>
+        <v>7.7070000195728202E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1960,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="D19">
         <v>0.69230769230769296</v>
@@ -1969,16 +1970,16 @@
         <v>6.6948967387184501E-16</v>
       </c>
       <c r="F19">
-        <v>0.61543589743589799</v>
+        <v>0.61243589743589799</v>
       </c>
       <c r="G19">
-        <v>9.3768124115572293E-3</v>
+        <v>9.7203542524425899E-3</v>
       </c>
       <c r="H19">
-        <v>0.80907326007325997</v>
+        <v>0.81083516483516505</v>
       </c>
       <c r="I19">
-        <v>7.2740424000986301E-3</v>
+        <v>7.4948953410608797E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1989,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D20">
         <v>0.69230769230769296</v>
@@ -1998,16 +1999,16 @@
         <v>6.6948967387184501E-16</v>
       </c>
       <c r="F20">
-        <v>0.61961538461538501</v>
+        <v>0.61543589743589799</v>
       </c>
       <c r="G20">
-        <v>7.5693794998966E-3</v>
+        <v>9.3768124115572293E-3</v>
       </c>
       <c r="H20">
-        <v>0.80828388278388297</v>
+        <v>0.80907326007325997</v>
       </c>
       <c r="I20">
-        <v>7.6027597541207899E-3</v>
+        <v>7.2740424000986301E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2018,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="D21">
         <v>0.69230769230769296</v>
@@ -2027,16 +2028,16 @@
         <v>6.6948967387184501E-16</v>
       </c>
       <c r="F21">
-        <v>0.62028205128205205</v>
+        <v>0.61961538461538501</v>
       </c>
       <c r="G21">
-        <v>6.32389376091381E-3</v>
+        <v>7.5693794998966E-3</v>
       </c>
       <c r="H21">
-        <v>0.80110714285714302</v>
+        <v>0.80828388278388297</v>
       </c>
       <c r="I21">
-        <v>9.2993792384829608E-3</v>
+        <v>7.6027597541207899E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2047,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D22">
         <v>0.69230769230769296</v>
@@ -2056,15 +2057,44 @@
         <v>6.6948967387184501E-16</v>
       </c>
       <c r="F22">
+        <v>0.62028205128205205</v>
+      </c>
+      <c r="G22">
+        <v>6.32389376091381E-3</v>
+      </c>
+      <c r="H22">
+        <v>0.80110714285714302</v>
+      </c>
+      <c r="I22">
+        <v>9.2993792384829608E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.69230769230769296</v>
+      </c>
+      <c r="E23">
+        <v>6.6948967387184501E-16</v>
+      </c>
+      <c r="F23">
         <v>0.62097435897436004</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>4.1613886839244303E-3</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.78995604395604402</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>5.8891216899316897E-3</v>
       </c>
     </row>
